--- a/public/product/products.xlsx
+++ b/public/product/products.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC675047-4D2E-4894-8FE5-9695A1384489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EFD9AD-3624-4E8A-BEC5-091531459BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="288" windowWidth="23256" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>SKU</t>
   </si>
@@ -135,39 +135,6 @@
   </si>
   <si>
     <t>Comercial (valor)</t>
-  </si>
-  <si>
-    <t>001-101-00002</t>
-  </si>
-  <si>
-    <t>Café tostado molido marca Serrano, sobre de 125 g</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Entre los caf&amp;eacute;s m&amp;aacute;s populares de Cuba, 100% Ar&amp;aacute;bica y creado especialmente para colar en cafeteras.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Serrano</t>
-  </si>
-  <si>
-    <t>Café y otras infusiones</t>
-  </si>
-  <si>
-    <t>Café Tostado Molido marca Serrano (sobre de  125 g)</t>
-  </si>
-  <si>
-    <t>cafe-tostado-molido-marca-serrano-sobre-de-125-g</t>
-  </si>
-  <si>
-    <t>PERCENT</t>
-  </si>
-  <si>
-    <t>Prov Prod Plaza</t>
-  </si>
-  <si>
-    <t>Fabricante 2</t>
-  </si>
-  <si>
-    <t>Café y otras infusione</t>
   </si>
 </sst>
 </file>
@@ -562,13 +529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
@@ -601,7 +568,7 @@
     <col min="39" max="40" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -721,148 +688,6 @@
       </c>
       <c r="AN1" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2">
-        <v>960</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0.125</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2">
-        <v>1.85</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3">
-        <v>960</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.125</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH3">
-        <v>1.85</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN3">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
